--- a/simulation_data/two_step_algorithm/2s_error_level_10_percent_water_20.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_10_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.63011555295979</v>
+        <v>93.73267447751427</v>
       </c>
       <c r="D2" t="n">
-        <v>14.45656097916009</v>
+        <v>12.26483731893998</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>93.14880931947863</v>
+        <v>92.44608410863334</v>
       </c>
       <c r="D3" t="n">
-        <v>15.01211455473815</v>
+        <v>12.59841955268579</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>92.88897815637932</v>
+        <v>90.88030370138152</v>
       </c>
       <c r="D4" t="n">
-        <v>13.72610193363659</v>
+        <v>13.94450962155397</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.5299974558074</v>
+        <v>90.76887598846491</v>
       </c>
       <c r="D5" t="n">
-        <v>12.24767456410937</v>
+        <v>12.14270453893553</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>90.1184128521873</v>
+        <v>88.04175001922191</v>
       </c>
       <c r="D6" t="n">
-        <v>14.30298397825174</v>
+        <v>11.65304114085607</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>89.03421280243943</v>
+        <v>87.35547821896066</v>
       </c>
       <c r="D7" t="n">
-        <v>13.65603914085054</v>
+        <v>13.35888412994096</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.71126468487635</v>
+        <v>85.72409599652288</v>
       </c>
       <c r="D8" t="n">
-        <v>13.59853059783053</v>
+        <v>12.80152197116497</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>86.05961894352907</v>
+        <v>85.02647603645272</v>
       </c>
       <c r="D9" t="n">
-        <v>13.32062164819069</v>
+        <v>14.28930127281525</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.49095124326213</v>
+        <v>85.11598112800583</v>
       </c>
       <c r="D10" t="n">
-        <v>13.30950409662145</v>
+        <v>11.16925907358491</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.87719085966791</v>
+        <v>82.72531287853469</v>
       </c>
       <c r="D11" t="n">
-        <v>13.63339928682501</v>
+        <v>12.78557253414535</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.97546736132935</v>
+        <v>84.97344188362707</v>
       </c>
       <c r="D12" t="n">
-        <v>13.25259490391169</v>
+        <v>11.3351744382081</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>82.08809647737259</v>
+        <v>82.57939219646906</v>
       </c>
       <c r="D13" t="n">
-        <v>13.05460626400022</v>
+        <v>11.56461435589416</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.61714382628008</v>
+        <v>78.67742295683831</v>
       </c>
       <c r="D14" t="n">
-        <v>13.80384379584146</v>
+        <v>12.09742211486354</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.67665202244252</v>
+        <v>79.52221283509027</v>
       </c>
       <c r="D15" t="n">
-        <v>12.41932004712648</v>
+        <v>11.71418147927734</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>79.00249405661967</v>
+        <v>79.4426797914229</v>
       </c>
       <c r="D16" t="n">
-        <v>11.99093859775796</v>
+        <v>11.61255569757614</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>80.30885905460697</v>
+        <v>76.50783196208725</v>
       </c>
       <c r="D17" t="n">
-        <v>11.66864066396067</v>
+        <v>12.1884861866044</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>77.39317015210166</v>
+        <v>74.14915462515575</v>
       </c>
       <c r="D18" t="n">
-        <v>12.6971999129123</v>
+        <v>10.96631467629419</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.3597022483748</v>
+        <v>76.34047506878346</v>
       </c>
       <c r="D19" t="n">
-        <v>11.68729705023123</v>
+        <v>12.14300557366613</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>75.13843697322264</v>
+        <v>72.75046043208728</v>
       </c>
       <c r="D20" t="n">
-        <v>12.69448913066889</v>
+        <v>13.09744918664217</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>74.65041048433412</v>
+        <v>73.59950969573964</v>
       </c>
       <c r="D21" t="n">
-        <v>11.75162568384244</v>
+        <v>11.33585051095645</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.99965829126225</v>
+        <v>72.02904154702955</v>
       </c>
       <c r="D22" t="n">
-        <v>12.04841420146516</v>
+        <v>13.13182754152132</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.74943683985214</v>
+        <v>68.52721765236089</v>
       </c>
       <c r="D23" t="n">
-        <v>12.9825878478549</v>
+        <v>12.88954297233603</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.87240039681305</v>
+        <v>69.16279060835245</v>
       </c>
       <c r="D24" t="n">
-        <v>11.27777592282147</v>
+        <v>13.3872510049461</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>69.35049982069469</v>
+        <v>68.16567843293548</v>
       </c>
       <c r="D25" t="n">
-        <v>14.29939994073771</v>
+        <v>11.77569056753046</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.47559278652889</v>
+        <v>66.48385755996281</v>
       </c>
       <c r="D26" t="n">
-        <v>13.8118563981127</v>
+        <v>12.36930441887648</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.74440785232954</v>
+        <v>64.67351786150199</v>
       </c>
       <c r="D27" t="n">
-        <v>13.19112896691218</v>
+        <v>12.06673103880513</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.34695298756117</v>
+        <v>65.49822287218205</v>
       </c>
       <c r="D28" t="n">
-        <v>11.67597630890427</v>
+        <v>10.57935544143767</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.79834169406388</v>
+        <v>64.57210391295008</v>
       </c>
       <c r="D29" t="n">
-        <v>13.65786966153046</v>
+        <v>12.793249479129</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.35976343193553</v>
+        <v>62.85736422891796</v>
       </c>
       <c r="D30" t="n">
-        <v>13.43777462707231</v>
+        <v>12.65349457857665</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>63.76337571955637</v>
+        <v>61.11566579560132</v>
       </c>
       <c r="D31" t="n">
-        <v>14.33647079146641</v>
+        <v>13.27312786679862</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.73694512454271</v>
+        <v>58.69853013259608</v>
       </c>
       <c r="D32" t="n">
-        <v>11.89601759998796</v>
+        <v>12.47071339902951</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.38902562556673</v>
+        <v>59.77048550136598</v>
       </c>
       <c r="D33" t="n">
-        <v>12.37595274075909</v>
+        <v>12.14014007067857</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.41453777167649</v>
+        <v>60.81844191924814</v>
       </c>
       <c r="D34" t="n">
-        <v>14.40444525767777</v>
+        <v>11.74823707849402</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>55.9396376809341</v>
+        <v>57.56204085456334</v>
       </c>
       <c r="D35" t="n">
-        <v>12.33629057485867</v>
+        <v>11.90782855982047</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.9499775440526</v>
+        <v>57.22617332472164</v>
       </c>
       <c r="D36" t="n">
-        <v>12.20486417734956</v>
+        <v>10.68345255460956</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>52.77097445626452</v>
+        <v>55.5776434144673</v>
       </c>
       <c r="D37" t="n">
-        <v>11.58265581655583</v>
+        <v>12.11199574863603</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.42841057834211</v>
+        <v>54.83529622109906</v>
       </c>
       <c r="D38" t="n">
-        <v>11.89507601355889</v>
+        <v>12.10450265543418</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.82568775762652</v>
+        <v>51.13125094464331</v>
       </c>
       <c r="D39" t="n">
-        <v>12.02188545478221</v>
+        <v>12.59485373355407</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.83120153966677</v>
+        <v>52.54285338131606</v>
       </c>
       <c r="D40" t="n">
-        <v>10.0467423410273</v>
+        <v>10.66603952440881</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.12120739710632</v>
+        <v>50.90325149426904</v>
       </c>
       <c r="D41" t="n">
-        <v>12.66340458058119</v>
+        <v>13.98614311398939</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.96522413806688</v>
+        <v>50.26149919829145</v>
       </c>
       <c r="D42" t="n">
-        <v>13.78580697539516</v>
+        <v>12.05700337371307</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>52.73526501422543</v>
+        <v>49.66204620715555</v>
       </c>
       <c r="D43" t="n">
-        <v>11.17216742247832</v>
+        <v>11.79175665311012</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.66318072052908</v>
+        <v>47.5855586938042</v>
       </c>
       <c r="D44" t="n">
-        <v>12.7145698429945</v>
+        <v>11.84778682785916</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.87234746563104</v>
+        <v>48.48503530737798</v>
       </c>
       <c r="D45" t="n">
-        <v>12.66765492905015</v>
+        <v>12.91397972887884</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>47.81325470445129</v>
+        <v>45.6794693176158</v>
       </c>
       <c r="D46" t="n">
-        <v>11.33244199650406</v>
+        <v>12.52586227901852</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>47.30048688156905</v>
+        <v>44.37680791032926</v>
       </c>
       <c r="D47" t="n">
-        <v>12.07221456424086</v>
+        <v>12.59152553911894</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.00778236308174</v>
+        <v>42.30463325087621</v>
       </c>
       <c r="D48" t="n">
-        <v>13.37013315486603</v>
+        <v>12.89987204638121</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.11943178999093</v>
+        <v>44.03740395207719</v>
       </c>
       <c r="D49" t="n">
-        <v>11.86986455911263</v>
+        <v>12.06531924967282</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.85975881016052</v>
+        <v>41.10724802395793</v>
       </c>
       <c r="D50" t="n">
-        <v>12.54476347937693</v>
+        <v>12.6090127720766</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.72485331083507</v>
+        <v>41.13379821981845</v>
       </c>
       <c r="D51" t="n">
-        <v>13.05800528680163</v>
+        <v>13.02415764336451</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>41.21482213230985</v>
+        <v>42.06771249885502</v>
       </c>
       <c r="D52" t="n">
-        <v>11.88387671828452</v>
+        <v>12.25825911213099</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.57179980661075</v>
+        <v>40.1685895515816</v>
       </c>
       <c r="D53" t="n">
-        <v>12.90332685847187</v>
+        <v>11.7832802740044</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.46129369516979</v>
+        <v>37.51610557716322</v>
       </c>
       <c r="D54" t="n">
-        <v>12.26708197531818</v>
+        <v>12.31305903669288</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.25842321378474</v>
+        <v>38.80182708740654</v>
       </c>
       <c r="D55" t="n">
-        <v>14.84433221796266</v>
+        <v>10.83871803337277</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.8742776468815</v>
+        <v>35.42818868827646</v>
       </c>
       <c r="D56" t="n">
-        <v>11.57960156013656</v>
+        <v>12.80491583980914</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.05278773601675</v>
+        <v>33.11087611708394</v>
       </c>
       <c r="D57" t="n">
-        <v>11.28693158148057</v>
+        <v>11.85924700218199</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.74171010264882</v>
+        <v>33.45635889045283</v>
       </c>
       <c r="D58" t="n">
-        <v>10.78195355138087</v>
+        <v>12.89237771095628</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.68992237539716</v>
+        <v>33.04051148610751</v>
       </c>
       <c r="D59" t="n">
-        <v>13.59352610222283</v>
+        <v>13.11454743451021</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.84539588023914</v>
+        <v>31.47777782262126</v>
       </c>
       <c r="D60" t="n">
-        <v>11.39289200414926</v>
+        <v>11.01798254172299</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.67089839843391</v>
+        <v>31.81258818872641</v>
       </c>
       <c r="D61" t="n">
-        <v>12.83807442685022</v>
+        <v>13.09760262434824</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.23812380081183</v>
+        <v>32.63965548100997</v>
       </c>
       <c r="D62" t="n">
-        <v>12.32575394412826</v>
+        <v>9.770587523057658</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.20508453526498</v>
+        <v>29.15357670369376</v>
       </c>
       <c r="D63" t="n">
-        <v>12.05851220502404</v>
+        <v>11.03370898065917</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.23275830815737</v>
+        <v>29.94192941055985</v>
       </c>
       <c r="D64" t="n">
-        <v>12.09009925475113</v>
+        <v>13.19608811625203</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.73540522448978</v>
+        <v>26.76458317977822</v>
       </c>
       <c r="D65" t="n">
-        <v>13.42417809149347</v>
+        <v>10.03410175297312</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.34730102363617</v>
+        <v>26.65254744272198</v>
       </c>
       <c r="D66" t="n">
-        <v>11.56892847408063</v>
+        <v>12.01902080032637</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.95168277820429</v>
+        <v>25.01195736374307</v>
       </c>
       <c r="D67" t="n">
-        <v>13.05142550544865</v>
+        <v>11.1225049771902</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.83932594218516</v>
+        <v>22.9633239701032</v>
       </c>
       <c r="D68" t="n">
-        <v>11.39480154557799</v>
+        <v>12.12877124178813</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.82194155600775</v>
+        <v>22.46499605337738</v>
       </c>
       <c r="D69" t="n">
-        <v>13.8193798578183</v>
+        <v>12.88415911606288</v>
       </c>
     </row>
   </sheetData>
